--- a/Scripts/Kamper/H24/Avd-A.xlsx
+++ b/Scripts/Kamper/H24/Avd-A.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,11 +493,6 @@
           <t>Kommentar</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 11</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -532,18 +527,13 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>NTNUI Samba</t>
+          <t>Elias Klingenberg</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>97001911</v>
+        <v>93825369</v>
       </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -564,11 +554,11 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45542</v>
+        <v>45553</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -578,18 +568,13 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Janus FK</t>
+          <t>Elias Ward Heimdal</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>41550703</v>
+        <v>47265035</v>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -624,18 +609,13 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>HSK</t>
+          <t>Elias Ward Heimdal</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>97069604</v>
+        <v>47265035</v>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -670,18 +650,15 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Tihlde Pythons</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>96047880</v>
+          <t>Erik Rindalsholt Fredriksen</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>413 00 394</t>
+        </is>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -702,11 +679,11 @@
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45543</v>
+        <v>45546</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -716,20 +693,13 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Smøreguttene FK</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>45175770, 45181210</t>
-        </is>
+          <t>Elias Ward Heimdal</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>47265035</v>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -743,7 +713,6 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -793,7 +762,6 @@
           <t>Kommentar</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -835,7 +803,6 @@
         <v>99470937</v>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -877,7 +844,6 @@
         <v>95433964</v>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -919,7 +885,6 @@
         <v>46471744</v>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -944,7 +909,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -961,7 +926,6 @@
         <v>90368987</v>
       </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1003,7 +967,6 @@
         <v>97460809</v>
       </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -1017,7 +980,6 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1067,7 +1029,6 @@
           <t>Kommentar</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1092,7 +1053,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1109,7 +1070,6 @@
         <v>97001911</v>
       </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1130,11 +1090,11 @@
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45563</v>
+        <v>45564</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1151,7 +1111,6 @@
         <v>41550703</v>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1193,7 +1152,6 @@
         <v>97069604</v>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1235,7 +1193,6 @@
         <v>96047880</v>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1279,7 +1236,6 @@
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -1293,7 +1249,6 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1343,7 +1298,6 @@
           <t>Kommentar</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1368,7 +1322,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1385,7 +1339,6 @@
         <v>99470937</v>
       </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1427,7 +1380,6 @@
         <v>95433964</v>
       </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1469,7 +1421,6 @@
         <v>46471744</v>
       </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1511,7 +1462,6 @@
         <v>90368987</v>
       </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1553,7 +1503,6 @@
         <v>97460809</v>
       </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -1567,7 +1516,6 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1617,7 +1565,6 @@
           <t>Kommentar</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1659,7 +1606,6 @@
         <v>97001911</v>
       </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1701,7 +1647,6 @@
         <v>41550703</v>
       </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1743,7 +1688,6 @@
         <v>97069604</v>
       </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1785,7 +1729,6 @@
         <v>96047880</v>
       </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1829,7 +1772,6 @@
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
@@ -1843,7 +1785,6 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1893,7 +1834,6 @@
           <t>Kommentar</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1935,7 +1875,6 @@
         <v>99470937</v>
       </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1977,7 +1916,6 @@
         <v>95433964</v>
       </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2019,7 +1957,6 @@
         <v>46471744</v>
       </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2061,7 +1998,6 @@
         <v>90368987</v>
       </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2103,7 +2039,6 @@
         <v>97460809</v>
       </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
@@ -2117,7 +2052,6 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2167,7 +2101,6 @@
           <t>Kommentar</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2209,7 +2142,6 @@
         <v>97001911</v>
       </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2251,7 +2183,6 @@
         <v>41550703</v>
       </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2293,7 +2224,6 @@
         <v>97069604</v>
       </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2335,7 +2265,6 @@
         <v>96047880</v>
       </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2379,7 +2308,6 @@
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
@@ -2393,7 +2321,6 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2443,7 +2370,6 @@
           <t>Kommentar</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2485,7 +2411,6 @@
         <v>99470937</v>
       </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2527,7 +2452,6 @@
         <v>95433964</v>
       </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2569,7 +2493,6 @@
         <v>46471744</v>
       </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2611,7 +2534,6 @@
         <v>90368987</v>
       </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2653,7 +2575,6 @@
         <v>97460809</v>
       </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -2667,7 +2588,6 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2717,7 +2637,6 @@
           <t>Kommentar</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2759,7 +2678,6 @@
         <v>97001911</v>
       </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2780,16 +2698,16 @@
         </is>
       </c>
       <c r="F59" s="2" t="n">
-        <v>45605</v>
+        <v>45557</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Tempe Hovedbane</t>
+          <t>Eberg Kunstgress</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2801,7 +2719,6 @@
         <v>41550703</v>
       </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2843,7 +2760,6 @@
         <v>97069604</v>
       </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2885,7 +2801,6 @@
         <v>96047880</v>
       </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2929,7 +2844,6 @@
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Scripts/Kamper/H24/Avd-A.xlsx
+++ b/Scripts/Kamper/H24/Avd-A.xlsx
@@ -591,7 +591,7 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Hånd til Munn </t>
+          <t>FK Hånd til Munn</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">

--- a/Scripts/Kamper/H24/Avd-A.xlsx
+++ b/Scripts/Kamper/H24/Avd-A.xlsx
@@ -582,13 +582,17 @@
           <t>Knekken</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>FK Hånd til Munn</t>
@@ -650,13 +654,11 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Erik Rindalsholt Fredriksen</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>413 00 394</t>
-        </is>
+          <t>Heja Hosseinzadeh</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>40174039</v>
       </c>
       <c r="K5" t="inlineStr"/>
     </row>
@@ -807,7 +809,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Hånd til Munn </t>
+          <t>FK Hånd til Munn</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -1045,7 +1047,7 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Hånd til Munn </t>
+          <t>FK Hånd til Munn</t>
         </is>
       </c>
       <c r="F16" s="2" t="n">
@@ -1227,13 +1229,11 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Smøreguttene FK</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>45175770, 45181210</t>
-        </is>
+          <t>Sparkekameratene</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>48225968</v>
       </c>
       <c r="K20" t="inlineStr"/>
     </row>
@@ -1651,7 +1651,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Hånd til Munn </t>
+          <t>FK Hånd til Munn</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -1909,11 +1909,11 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Dronning Maud FC</t>
+          <t>Sparkekameratene</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>95433964</v>
+        <v>48225968</v>
       </c>
       <c r="K38" t="inlineStr"/>
     </row>
@@ -1973,7 +1973,7 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Hånd til Munn </t>
+          <t>FK Hånd til Munn</t>
         </is>
       </c>
       <c r="F40" s="2" t="n">
@@ -2269,7 +2269,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Hånd til Munn </t>
+          <t>FK Hånd til Munn</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -2538,7 +2538,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Hånd til Munn </t>
+          <t>FK Hånd til Munn</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -2776,7 +2776,7 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Hånd til Munn </t>
+          <t>FK Hånd til Munn</t>
         </is>
       </c>
       <c r="F61" s="2" t="n">
@@ -2794,11 +2794,11 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Tihlde Pythons</t>
+          <t>Sparkekameratene</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>96047880</v>
+        <v>48225968</v>
       </c>
       <c r="K61" t="inlineStr"/>
     </row>

--- a/Scripts/Kamper/H24/Avd-A.xlsx
+++ b/Scripts/Kamper/H24/Avd-A.xlsx
@@ -627,13 +627,17 @@
           <t>Omega FK</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Marin FK</t>

--- a/Scripts/Kamper/H24/Avd-A.xlsx
+++ b/Scripts/Kamper/H24/Avd-A.xlsx
@@ -500,13 +500,17 @@
           <t>Elektra FK</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Hattfjelldal United</t>

--- a/Scripts/Kamper/H24/Avd-A.xlsx
+++ b/Scripts/Kamper/H24/Avd-A.xlsx
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>

--- a/Scripts/Kamper/H24/Avd-A.xlsx
+++ b/Scripts/Kamper/H24/Avd-A.xlsx
@@ -792,11 +792,11 @@
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45549</v>
+        <v>45550</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Week 3 Fixtures</t>
+          <t>Week 9 Fixtures</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1055,15 +1055,15 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FK Hånd til Munn</t>
+          <t>FK Steindølene 2</t>
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45563</v>
+        <v>45556</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FK Steindølene 1</t>
+          <t>Knekken</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -1096,20 +1096,20 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Marin FK</t>
+          <t>Hattfjelldal United</t>
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45564</v>
+        <v>45557</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Tempe Kunstgress</t>
+          <t>Eberg Kunstgress</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Hattfjelldal United</t>
+          <t>Omega FK</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -1137,11 +1137,11 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Chemie FK</t>
+          <t>FK Steindølene 1</t>
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45564</v>
+        <v>45556</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Tempe Hovedbane</t>
+          <t>Tempe Kunstgress</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1166,7 +1166,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FK Steindølene 2</t>
+          <t>Erudio Herrer</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -1178,15 +1178,15 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erudio Herrer </t>
+          <t>FK Hånd til Munn</t>
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45564</v>
+        <v>45557</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1196,18 +1196,18 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Tihlde Pythons</t>
+          <t>Sparkekameratene</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>96047880</v>
+        <v>48225968</v>
       </c>
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Knekken</t>
+          <t>Chemie FK</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -1219,15 +1219,15 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Omega FK</t>
+          <t>Marin FK</t>
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45564</v>
+        <v>45557</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1237,11 +1237,13 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Sparkekameratene</t>
-        </is>
-      </c>
-      <c r="J20" t="n">
-        <v>48225968</v>
+          <t>Smøreguttene FK</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>45175770, 45181210</t>
+        </is>
       </c>
       <c r="K20" t="inlineStr"/>
     </row>
@@ -1261,7 +1263,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Week 4 Fixtures</t>
+          <t>Week 3 Fixtures</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1310,7 +1312,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Marin FK</t>
+          <t>Elektra FK</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -1322,15 +1324,15 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Elektra FK</t>
+          <t>FK Hånd til Munn</t>
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45570</v>
+        <v>45563</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1340,18 +1342,18 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Wolves of ballstreet</t>
+          <t>NTNUI Samba</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>99470937</v>
+        <v>97001911</v>
       </c>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chemie FK</t>
+          <t>FK Steindølene 1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1363,15 +1365,15 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FK Hånd til Munn</t>
+          <t>Marin FK</t>
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45570</v>
+        <v>45564</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1381,18 +1383,18 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Dronning Maud FC</t>
+          <t>Janus FK</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>95433964</v>
+        <v>41550703</v>
       </c>
       <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Erudio Herrer</t>
+          <t>Hattfjelldal United</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1404,15 +1406,15 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FK Steindølene 1</t>
+          <t>Chemie FK</t>
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45571</v>
+        <v>45564</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1422,18 +1424,18 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Petroleum FK</t>
+          <t>HSK</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>46471744</v>
+        <v>97069604</v>
       </c>
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Omega FK</t>
+          <t>FK Steindølene 2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -1445,29 +1447,29 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Hattfjelldal United</t>
+          <t xml:space="preserve">Erudio Herrer </t>
         </is>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45571</v>
+        <v>45564</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Tempe Kunstgress</t>
+          <t>Tempe Hovedbane</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>MiT Fotball</t>
+          <t>Tihlde Pythons</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>90368987</v>
+        <v>96047880</v>
       </c>
       <c r="K26" t="inlineStr"/>
     </row>
@@ -1486,29 +1488,29 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FK Steindølene 2</t>
+          <t>Omega FK</t>
         </is>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45570</v>
+        <v>45564</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Salmarbanen</t>
+          <t>Tempe Kunstgress</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>CKK</t>
+          <t>Sparkekameratene</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>97460809</v>
+        <v>48225968</v>
       </c>
       <c r="K27" t="inlineStr"/>
     </row>
@@ -1528,7 +1530,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Week 5 Fixtures</t>
+          <t>Week 4 Fixtures</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1577,7 +1579,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Elektra FK</t>
+          <t>Marin FK</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -1589,15 +1591,15 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Chemie FK</t>
+          <t>Elektra FK</t>
         </is>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45577</v>
+        <v>45570</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1607,18 +1609,18 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>NTNUI Samba</t>
+          <t>Wolves of ballstreet</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>97001911</v>
+        <v>99470937</v>
       </c>
       <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Marin FK</t>
+          <t>Chemie FK</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -1630,15 +1632,15 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Erudio Herrer</t>
+          <t>FK Hånd til Munn</t>
         </is>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45577</v>
+        <v>45570</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1648,18 +1650,18 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Janus FK</t>
+          <t>Dronning Maud FC</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>41550703</v>
+        <v>95433964</v>
       </c>
       <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FK Hånd til Munn</t>
+          <t>Erudio Herrer</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -1671,11 +1673,11 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Omega FK</t>
+          <t>FK Steindølene 1</t>
         </is>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45577</v>
+        <v>45571</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1684,23 +1686,23 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Tempe Kunstgress</t>
+          <t>Tempe Hovedbane</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>HSK</t>
+          <t>Petroleum FK</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>97069604</v>
+        <v>46471744</v>
       </c>
       <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>FK Steindølene 1</t>
+          <t>Omega FK</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -1712,36 +1714,36 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Knekken </t>
+          <t>Hattfjelldal United</t>
         </is>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45578</v>
+        <v>45571</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Tempe Hovedbane</t>
+          <t>Tempe Kunstgress</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Tihlde Pythons</t>
+          <t>MiT Fotball</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>96047880</v>
+        <v>90368987</v>
       </c>
       <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hattfjelldal United</t>
+          <t>Knekken</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1757,7 +1759,7 @@
         </is>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45578</v>
+        <v>45570</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1766,18 +1768,16 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Tempe Kunstgress</t>
+          <t>Salmarbanen</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Smøreguttene FK</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>45175770, 45181210</t>
-        </is>
+          <t>CKK</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>97460809</v>
       </c>
       <c r="K34" t="inlineStr"/>
     </row>
@@ -1797,7 +1797,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Week 6 Fixtures</t>
+          <t>Week 5 Fixtures</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1846,7 +1846,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Erudio Herrer</t>
+          <t>Elektra FK</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1858,11 +1858,11 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Elektra FK</t>
+          <t>Chemie FK</t>
         </is>
       </c>
       <c r="F37" s="2" t="n">
-        <v>45584</v>
+        <v>45577</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1876,18 +1876,18 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Wolves of ballstreet</t>
+          <t>NTNUI Samba</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>99470937</v>
+        <v>97001911</v>
       </c>
       <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Omega FK</t>
+          <t>Marin FK</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1899,15 +1899,15 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Chemie FK</t>
+          <t>Erudio Herrer</t>
         </is>
       </c>
       <c r="F38" s="2" t="n">
-        <v>45584</v>
+        <v>45577</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1917,18 +1917,18 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Sparkekameratene</t>
+          <t>Janus FK</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>48225968</v>
+        <v>41550703</v>
       </c>
       <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Knekken</t>
+          <t>FK Hånd til Munn</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1940,36 +1940,36 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Marin FK</t>
+          <t>Omega FK</t>
         </is>
       </c>
       <c r="F39" s="2" t="n">
-        <v>45585</v>
+        <v>45577</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Tempe Hovedbane</t>
+          <t>Tempe Kunstgress</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Petroleum FK</t>
+          <t>HSK</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>46471744</v>
+        <v>97069604</v>
       </c>
       <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>FK Steindølene 2</t>
+          <t>FK Steindølene 1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1981,15 +1981,15 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FK Hånd til Munn</t>
+          <t xml:space="preserve">Knekken </t>
         </is>
       </c>
       <c r="F40" s="2" t="n">
-        <v>45585</v>
+        <v>45578</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -1999,11 +1999,11 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>MiT Fotball</t>
+          <t>Tihlde Pythons</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>90368987</v>
+        <v>96047880</v>
       </c>
       <c r="K40" t="inlineStr"/>
     </row>
@@ -2022,15 +2022,15 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FK Steindølene 1</t>
+          <t>FK Steindølene 2</t>
         </is>
       </c>
       <c r="F41" s="2" t="n">
-        <v>45585</v>
+        <v>45578</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2040,11 +2040,13 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>CKK</t>
-        </is>
-      </c>
-      <c r="J41" t="n">
-        <v>97460809</v>
+          <t>Smøreguttene FK</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>45175770, 45181210</t>
+        </is>
       </c>
       <c r="K41" t="inlineStr"/>
     </row>
@@ -2064,7 +2066,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Week 7 Fixtures</t>
+          <t>Week 6 Fixtures</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2113,7 +2115,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Elektra FK</t>
+          <t>Erudio Herrer</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -2125,15 +2127,15 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Omega FK</t>
+          <t>Elektra FK</t>
         </is>
       </c>
       <c r="F44" s="2" t="n">
-        <v>45591</v>
+        <v>45584</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2143,18 +2145,18 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>NTNUI Samba</t>
+          <t>Wolves of ballstreet</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>97001911</v>
+        <v>99470937</v>
       </c>
       <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Erudio Herrer</t>
+          <t>Omega FK</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -2166,36 +2168,36 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Knekken </t>
+          <t>Chemie FK</t>
         </is>
       </c>
       <c r="F45" s="2" t="n">
-        <v>45591</v>
+        <v>45584</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Tempe Hovedbane</t>
+          <t>Tempe Kunstgress</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Janus FK</t>
+          <t>Sparkekameratene</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>41550703</v>
+        <v>48225968</v>
       </c>
       <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Chemie FK</t>
+          <t>Knekken</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -2207,36 +2209,36 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>FK Steindølene 2</t>
+          <t>Marin FK</t>
         </is>
       </c>
       <c r="F46" s="2" t="n">
-        <v>45591</v>
+        <v>45585</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Tempe Kunstgress</t>
+          <t>Tempe Hovedbane</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>HSK</t>
+          <t>Petroleum FK</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>97069604</v>
+        <v>46471744</v>
       </c>
       <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Marin FK</t>
+          <t>FK Steindølene 2</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -2248,15 +2250,15 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Hattfjelldal United</t>
+          <t>FK Hånd til Munn</t>
         </is>
       </c>
       <c r="F47" s="2" t="n">
-        <v>45592</v>
+        <v>45585</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2266,18 +2268,18 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Tihlde Pythons</t>
+          <t>MiT Fotball</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>96047880</v>
+        <v>90368987</v>
       </c>
       <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>FK Hånd til Munn</t>
+          <t>Hattfjelldal United</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -2293,11 +2295,11 @@
         </is>
       </c>
       <c r="F48" s="2" t="n">
-        <v>45592</v>
+        <v>45585</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2307,13 +2309,11 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Smøreguttene FK</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>45175770, 45181210</t>
-        </is>
+          <t>CKK</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>97460809</v>
       </c>
       <c r="K48" t="inlineStr"/>
     </row>
@@ -2333,7 +2333,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Week 8 Fixtures</t>
+          <t>Week 7 Fixtures</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2382,7 +2382,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Knekken</t>
+          <t>Elektra FK</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -2394,15 +2394,15 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Elektra FK</t>
+          <t>Omega FK</t>
         </is>
       </c>
       <c r="F51" s="2" t="n">
-        <v>45598</v>
+        <v>45591</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2412,18 +2412,18 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Wolves of ballstreet</t>
+          <t>NTNUI Samba</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>99470937</v>
+        <v>97001911</v>
       </c>
       <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>FK Steindølene 2</t>
+          <t>Erudio Herrer</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -2435,36 +2435,36 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Omega FK</t>
+          <t xml:space="preserve">Knekken </t>
         </is>
       </c>
       <c r="F52" s="2" t="n">
-        <v>45598</v>
+        <v>45591</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Tempe Kunstgress</t>
+          <t>Tempe Hovedbane</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Dronning Maud FC</t>
+          <t>Janus FK</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>95433964</v>
+        <v>41550703</v>
       </c>
       <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Hattfjelldal United</t>
+          <t>Chemie FK</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -2476,36 +2476,36 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Erudio Herrer</t>
+          <t>FK Steindølene 2</t>
         </is>
       </c>
       <c r="F53" s="2" t="n">
-        <v>45599</v>
+        <v>45591</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Tempe Hovedbane</t>
+          <t>Tempe Kunstgress</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Petroleum FK</t>
+          <t>HSK</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>46471744</v>
+        <v>97069604</v>
       </c>
       <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>FK Steindølene 1</t>
+          <t>Marin FK</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -2517,29 +2517,29 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Chemie FK</t>
+          <t>Hattfjelldal United</t>
         </is>
       </c>
       <c r="F54" s="2" t="n">
-        <v>45599</v>
+        <v>45592</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Tempe Kunstgress</t>
+          <t>Tempe Hovedbane</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>MiT Fotball</t>
+          <t>Tihlde Pythons</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>90368987</v>
+        <v>96047880</v>
       </c>
       <c r="K54" t="inlineStr"/>
     </row>
@@ -2558,29 +2558,31 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Marin FK</t>
+          <t>FK Steindølene 1</t>
         </is>
       </c>
       <c r="F55" s="2" t="n">
-        <v>45599</v>
+        <v>45592</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Tempe Hovedbane</t>
+          <t>Tempe Kunstgress</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>CKK</t>
-        </is>
-      </c>
-      <c r="J55" t="n">
-        <v>97460809</v>
+          <t>Smøreguttene FK</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>45175770, 45181210</t>
+        </is>
       </c>
       <c r="K55" t="inlineStr"/>
     </row>
@@ -2600,7 +2602,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Week 9 Fixtures</t>
+          <t>Week 8 Fixtures</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2649,7 +2651,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Elektra FK</t>
+          <t>Knekken</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -2661,15 +2663,15 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>FK Steindølene 2</t>
+          <t>Elektra FK</t>
         </is>
       </c>
       <c r="F58" s="2" t="n">
-        <v>45605</v>
+        <v>45598</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2679,18 +2681,18 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>NTNUI Samba</t>
+          <t>Wolves of ballstreet</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>97001911</v>
+        <v>99470937</v>
       </c>
       <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Knekken</t>
+          <t>FK Steindølene 2</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -2702,36 +2704,36 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Hattfjelldal United</t>
+          <t>Omega FK</t>
         </is>
       </c>
       <c r="F59" s="2" t="n">
-        <v>45557</v>
+        <v>45598</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Eberg Kunstgress</t>
+          <t>Tempe Kunstgress</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Janus FK</t>
+          <t>Dronning Maud FC</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>41550703</v>
+        <v>95433964</v>
       </c>
       <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Omega FK</t>
+          <t>Hattfjelldal United</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -2743,36 +2745,36 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>FK Steindølene 1</t>
+          <t>Erudio Herrer</t>
         </is>
       </c>
       <c r="F60" s="2" t="n">
-        <v>45605</v>
+        <v>45599</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Tempe Kunstgress</t>
+          <t>Tempe Hovedbane</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>HSK</t>
+          <t>Petroleum FK</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>97069604</v>
+        <v>46471744</v>
       </c>
       <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Erudio Herrer</t>
+          <t>FK Steindølene 1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -2784,36 +2786,36 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>FK Hånd til Munn</t>
+          <t>Chemie FK</t>
         </is>
       </c>
       <c r="F61" s="2" t="n">
-        <v>45606</v>
+        <v>45599</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Tempe Hovedbane</t>
+          <t>Tempe Kunstgress</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Sparkekameratene</t>
+          <t>MiT Fotball</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>48225968</v>
+        <v>90368987</v>
       </c>
       <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Chemie FK</t>
+          <t>FK Hånd til Munn</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -2829,27 +2831,25 @@
         </is>
       </c>
       <c r="F62" s="2" t="n">
-        <v>45606</v>
+        <v>45599</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Tempe Kunstgress</t>
+          <t>Tempe Hovedbane</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Smøreguttene FK</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>45175770, 45181210</t>
-        </is>
+          <t>CKK</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>97460809</v>
       </c>
       <c r="K62" t="inlineStr"/>
     </row>

--- a/Scripts/Kamper/H24/Avd-A.xlsx
+++ b/Scripts/Kamper/H24/Avd-A.xlsx
@@ -676,13 +676,17 @@
           <t>Erudio Herrer</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Chemie FK</t>

--- a/Scripts/Kamper/H24/Avd-A.xlsx
+++ b/Scripts/Kamper/H24/Avd-A.xlsx
@@ -824,13 +824,17 @@
           <t>FK Hånd til Munn</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Hattfjelldal United</t>

--- a/Scripts/Kamper/H24/Avd-A.xlsx
+++ b/Scripts/Kamper/H24/Avd-A.xlsx
@@ -910,16 +910,20 @@
           <t>Chemie FK</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Knekken </t>
+          <t>Knekken</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">

--- a/Scripts/Kamper/H24/Avd-A.xlsx
+++ b/Scripts/Kamper/H24/Avd-A.xlsx
@@ -869,13 +869,17 @@
           <t>Marin FK</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>FK Steindølene 2</t>
@@ -955,13 +959,17 @@
           <t>Erudio Herrer</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>Omega FK</t>

--- a/Scripts/Kamper/H24/Avd-A.xlsx
+++ b/Scripts/Kamper/H24/Avd-A.xlsx
@@ -783,13 +783,17 @@
           <t>FK Steindølene 1</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Elektra FK</t>

--- a/Scripts/Kamper/H24/Avd-A.xlsx
+++ b/Scripts/Kamper/H24/Avd-A.xlsx
@@ -545,13 +545,17 @@
           <t>FK Steindølene 2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>FK Steindølene 1</t>

--- a/Scripts/Kamper/H24/Avd-A.xlsx
+++ b/Scripts/Kamper/H24/Avd-A.xlsx
@@ -1074,13 +1074,17 @@
           <t>Elektra FK</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>FK Steindølene 2</t>

--- a/Scripts/Kamper/H24/Avd-A.xlsx
+++ b/Scripts/Kamper/H24/Avd-A.xlsx
@@ -1119,13 +1119,17 @@
           <t>Knekken</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>Hattfjelldal United</t>
@@ -1160,13 +1164,17 @@
           <t>Omega FK</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>FK Steindølene 1</t>
@@ -1242,13 +1250,17 @@
           <t>Chemie FK</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>Marin FK</t>

--- a/Scripts/Kamper/H24/Avd-A.xlsx
+++ b/Scripts/Kamper/H24/Avd-A.xlsx
@@ -1441,13 +1441,17 @@
           <t>Hattfjelldal United</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>4</v>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>Chemie FK</t>
@@ -1523,13 +1527,17 @@
           <t>Knekken</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>Omega FK</t>

--- a/Scripts/Kamper/H24/Avd-A.xlsx
+++ b/Scripts/Kamper/H24/Avd-A.xlsx
@@ -1486,16 +1486,20 @@
           <t>FK Steindølene 2</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>4</v>
+      </c>
       <c r="C26" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erudio Herrer </t>
+          <t>Erudio Herrer</t>
         </is>
       </c>
       <c r="F26" s="2" t="n">

--- a/Scripts/Kamper/H24/Avd-A.xlsx
+++ b/Scripts/Kamper/H24/Avd-A.xlsx
@@ -1400,13 +1400,17 @@
           <t>FK Steindølene 1</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>7</v>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>Marin FK</t>

--- a/Scripts/Kamper/H24/Avd-A.xlsx
+++ b/Scripts/Kamper/H24/Avd-A.xlsx
@@ -1642,13 +1642,17 @@
           <t>Marin FK</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>8</v>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>Elektra FK</t>
@@ -1683,13 +1687,17 @@
           <t>Chemie FK</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>FK Hånd til Munn</t>
@@ -1806,13 +1814,17 @@
           <t>Knekken</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
       <c r="C34" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>FK Steindølene 2</t>

--- a/Scripts/Kamper/H24/Avd-A.xlsx
+++ b/Scripts/Kamper/H24/Avd-A.xlsx
@@ -1732,13 +1732,17 @@
           <t>Erudio Herrer</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>FK Steindølene 1</t>
@@ -1773,13 +1777,17 @@
           <t>Omega FK</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>6</v>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>Hattfjelldal United</t>

--- a/Scripts/Kamper/H24/Avd-A.xlsx
+++ b/Scripts/Kamper/H24/Avd-A.xlsx
@@ -2218,13 +2218,17 @@
           <t>Erudio Herrer</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>2</v>
+      </c>
       <c r="C44" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>3</v>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>Elektra FK</t>
@@ -2259,13 +2263,17 @@
           <t>Omega FK</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>6</v>
+      </c>
       <c r="C45" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>Chemie FK</t>
@@ -2382,13 +2390,17 @@
           <t>Hattfjelldal United</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
       <c r="C48" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>FK Steindølene 1</t>

--- a/Scripts/Kamper/H24/Avd-A.xlsx
+++ b/Scripts/Kamper/H24/Avd-A.xlsx
@@ -2308,13 +2308,17 @@
           <t>Knekken</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>14</v>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>Marin FK</t>

--- a/Scripts/Kamper/H24/Avd-A.xlsx
+++ b/Scripts/Kamper/H24/Avd-A.xlsx
@@ -2591,13 +2591,17 @@
           <t>Chemie FK</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
       <c r="C53" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>3</v>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>FK Steindølene 2</t>

--- a/Scripts/Kamper/H24/Avd-A.xlsx
+++ b/Scripts/Kamper/H24/Avd-A.xlsx
@@ -2353,13 +2353,17 @@
           <t>FK Steindølene 2</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>2</v>
+      </c>
       <c r="C47" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>FK Hånd til Munn</t>

--- a/Scripts/Kamper/H24/Avd-A.xlsx
+++ b/Scripts/Kamper/H24/Avd-A.xlsx
@@ -2794,13 +2794,17 @@
           <t>Knekken</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="n">
+        <v>3</v>
+      </c>
       <c r="C58" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>Elektra FK</t>
@@ -2835,13 +2839,17 @@
           <t>FK Steindølene 2</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="B59" t="n">
+        <v>4</v>
+      </c>
       <c r="C59" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>Omega FK</t>
@@ -2917,13 +2925,17 @@
           <t>FK Steindølene 1</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="n">
+        <v>5</v>
+      </c>
       <c r="C61" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>Chemie FK</t>
@@ -2958,13 +2970,17 @@
           <t>FK Hånd til Munn</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
       <c r="C62" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="n">
+        <v>5</v>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>Marin FK</t>

--- a/Scripts/Kamper/H24/Avd-A.xlsx
+++ b/Scripts/Kamper/H24/Avd-A.xlsx
@@ -1359,13 +1359,17 @@
           <t>Elektra FK</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>FK Hånd til Munn</t>

--- a/Scripts/Kamper/H24/Avd-A.xlsx
+++ b/Scripts/Kamper/H24/Avd-A.xlsx
@@ -1209,13 +1209,17 @@
           <t>Erudio Herrer</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>FK Hånd til Munn</t>
